--- a/Data/Assertion_TF.xlsx
+++ b/Data/Assertion_TF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oneharman-my.sharepoint.com/personal/sophia_kim_harman_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2344" documentId="8_{1594ECDE-2767-4759-96A7-6FE2F184C525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BBDB3C7-F1EA-47A0-913B-352180614C3D}"/>
+  <xr:revisionPtr revIDLastSave="2372" documentId="8_{1594ECDE-2767-4759-96A7-6FE2F184C525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45EF610C-9EF8-4AC6-B71E-9AD4DCB187A2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5070" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{A0D018F4-3A48-4DCB-A1A2-EA6BF4E4311F}"/>
+    <workbookView xWindow="-28920" yWindow="5070" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="2" xr2:uid="{A0D018F4-3A48-4DCB-A1A2-EA6BF4E4311F}"/>
   </bookViews>
   <sheets>
     <sheet name="Define" sheetId="9" r:id="rId1"/>
@@ -317,10 +317,10 @@
     <t>Plus condition</t>
   </si>
   <si>
-    <t>Start condition</t>
-  </si>
-  <si>
-    <t>End Condition</t>
+    <t>Trigger Condition</t>
+  </si>
+  <si>
+    <t>Reset Condition</t>
   </si>
   <si>
     <t>always @(posedge clk or negedge resetn) begin
@@ -349,8 +349,8 @@
   </si>
   <si>
     <t>Property p_counter
-  @(posedge clk) disable iff(!resetn)
-  end_condition |-&gt; (cnt == expect_count_value);
+    @(posedge clk) disable iff(!resetn)
+    Trigger_condition |-&gt; (cnt == expect_count_value);
 endproperty</t>
   </si>
   <si>
@@ -1897,7 +1897,7 @@
     </r>
   </si>
   <si>
-    <t>Expected Preset(Pulse Width Assertion)</t>
+    <t>Expected Preset(hPulse Width Assertion)</t>
   </si>
   <si>
     <t>Check Target</t>
@@ -1922,6 +1922,24 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
+      <t>clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>pulse</t>
     </r>
     <r>
@@ -1949,9 +1967,27 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)
+      <t xml:space="preserve">)
     int value_count;
-    @(posedge clk) disable iff(!resetn)
+    @(posedge </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) disable iff(!resetn)
     $rose(</t>
     </r>
     <r>
@@ -1961,7 +1997,7 @@
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
-      <t>pulse</t>
+      <t>hpulse</t>
     </r>
     <r>
       <rPr>
@@ -1995,7 +2031,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FF215C98"/>
+        <color rgb="FF0070C0"/>
         <rFont val="Aptos Narrow"/>
         <scheme val="minor"/>
       </rPr>
@@ -2030,6 +2066,24 @@
       <t>);
 endproperty
 assert property (p_pulse_width_check(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i_clk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -4083,7 +4137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4284,6 +4338,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4389,6 +4444,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4398,8 +4456,47 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4577,50 +4674,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5082,88 +5135,88 @@
       <c r="N1" s="53"/>
     </row>
     <row r="2" spans="2:14">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="85"/>
-      <c r="L2" s="86" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86"/>
+      <c r="L2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="87"/>
-      <c r="N2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="L3" s="89" t="s">
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="99"/>
+      <c r="L3" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="90"/>
-      <c r="N3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="92"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="98"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="91"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="L4" s="93"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="92"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="91"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="99"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
-      <c r="J6" s="101"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="95"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="96"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="58"/>
@@ -5180,23 +5233,23 @@
       <c r="N7" s="53"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="E8" s="76" t="s">
+      <c r="C8" s="104"/>
+      <c r="E8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
-      <c r="L8" s="79" t="s">
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="79"/>
+      <c r="L8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="80"/>
-      <c r="N8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="82"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="68" t="s">
@@ -5299,120 +5352,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="154" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="H1" s="140"/>
-      <c r="I1" s="140"/>
-      <c r="J1" s="140"/>
-      <c r="K1" s="140"/>
-      <c r="L1" s="140"/>
-      <c r="M1" s="141"/>
-      <c r="O1" s="139" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
+      <c r="I1" s="155"/>
+      <c r="J1" s="155"/>
+      <c r="K1" s="155"/>
+      <c r="L1" s="155"/>
+      <c r="M1" s="156"/>
+      <c r="O1" s="154" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
-      <c r="T1" s="140"/>
-      <c r="U1" s="140"/>
-      <c r="V1" s="140"/>
-      <c r="W1" s="140"/>
-      <c r="X1" s="141"/>
-      <c r="Z1" s="146" t="s">
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="155"/>
+      <c r="S1" s="155"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="156"/>
+      <c r="Z1" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" s="147"/>
-      <c r="AB1" s="147"/>
-      <c r="AC1" s="147"/>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="147"/>
-      <c r="AG1" s="147"/>
-      <c r="AH1" s="148"/>
+      <c r="AA1" s="162"/>
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="162"/>
+      <c r="AD1" s="162"/>
+      <c r="AE1" s="162"/>
+      <c r="AF1" s="162"/>
+      <c r="AG1" s="162"/>
+      <c r="AH1" s="163"/>
     </row>
     <row r="2" spans="1:34" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="142"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="142"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="150"/>
-      <c r="AB2" s="150"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="150"/>
-      <c r="AF2" s="150"/>
-      <c r="AG2" s="150"/>
-      <c r="AH2" s="151"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="157"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="157"/>
+      <c r="Z2" s="164"/>
+      <c r="AA2" s="165"/>
+      <c r="AB2" s="165"/>
+      <c r="AC2" s="165"/>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="165"/>
+      <c r="AH2" s="166"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="167" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="152" t="s">
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="167" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="153"/>
-      <c r="J3" s="153"/>
-      <c r="K3" s="153"/>
-      <c r="L3" s="153"/>
-      <c r="M3" s="154"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="144"/>
-      <c r="Q3" s="144"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="144"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="145"/>
-      <c r="Z3" s="155" t="s">
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="169"/>
+      <c r="O3" s="158"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
+      <c r="R3" s="159"/>
+      <c r="S3" s="159"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="160"/>
+      <c r="Z3" s="170" t="s">
         <v>224</v>
       </c>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="155" t="s">
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="170" t="s">
         <v>227</v>
       </c>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="159"/>
+      <c r="AF3" s="173"/>
+      <c r="AG3" s="173"/>
+      <c r="AH3" s="174"/>
     </row>
     <row r="4" spans="1:34" ht="13.5" customHeight="1">
       <c r="A4" s="41" t="s">
@@ -6090,120 +6143,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="13.5" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="117"/>
-      <c r="O1" s="115" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="132"/>
+      <c r="O1" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="116"/>
-      <c r="X1" s="117"/>
-      <c r="Z1" s="161" t="s">
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="132"/>
+      <c r="Z1" s="176" t="s">
         <v>224</v>
       </c>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="162"/>
-      <c r="AF1" s="162"/>
-      <c r="AG1" s="162"/>
-      <c r="AH1" s="163"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="177"/>
+      <c r="AF1" s="177"/>
+      <c r="AG1" s="177"/>
+      <c r="AH1" s="178"/>
     </row>
     <row r="2" spans="1:34" ht="13.5" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="118"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="118"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="165"/>
-      <c r="AF2" s="165"/>
-      <c r="AG2" s="165"/>
-      <c r="AH2" s="166"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="133"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="133"/>
+      <c r="Z2" s="179"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="180"/>
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="180"/>
+      <c r="AF2" s="180"/>
+      <c r="AG2" s="180"/>
+      <c r="AH2" s="181"/>
     </row>
     <row r="3" spans="1:34" ht="19.5" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="104" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-      <c r="V3" s="170"/>
-      <c r="W3" s="170"/>
-      <c r="X3" s="171"/>
-      <c r="Z3" s="160" t="s">
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="185"/>
+      <c r="V3" s="185"/>
+      <c r="W3" s="185"/>
+      <c r="X3" s="186"/>
+      <c r="Z3" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="160" t="s">
+      <c r="AA3" s="171"/>
+      <c r="AB3" s="171"/>
+      <c r="AC3" s="171"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="175" t="s">
         <v>227</v>
       </c>
-      <c r="AF3" s="167"/>
-      <c r="AG3" s="167"/>
-      <c r="AH3" s="168"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="182"/>
+      <c r="AH3" s="183"/>
     </row>
     <row r="4" spans="1:34" ht="13.5" customHeight="1">
       <c r="A4" s="41" t="s">
@@ -6659,111 +6712,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="13.5" customHeight="1">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="117"/>
-      <c r="L1" s="115" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="132"/>
+      <c r="L1" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="117"/>
-      <c r="W1" s="161" t="s">
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="132"/>
+      <c r="W1" s="176" t="s">
         <v>224</v>
       </c>
-      <c r="X1" s="162"/>
-      <c r="Y1" s="162"/>
-      <c r="Z1" s="162"/>
-      <c r="AA1" s="162"/>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="162"/>
-      <c r="AD1" s="162"/>
-      <c r="AE1" s="163"/>
+      <c r="X1" s="177"/>
+      <c r="Y1" s="177"/>
+      <c r="Z1" s="177"/>
+      <c r="AA1" s="177"/>
+      <c r="AB1" s="177"/>
+      <c r="AC1" s="177"/>
+      <c r="AD1" s="177"/>
+      <c r="AE1" s="178"/>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="118"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="118"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="165"/>
-      <c r="Y2" s="165"/>
-      <c r="Z2" s="165"/>
-      <c r="AA2" s="165"/>
-      <c r="AB2" s="165"/>
-      <c r="AC2" s="165"/>
-      <c r="AD2" s="165"/>
-      <c r="AE2" s="166"/>
+      <c r="A2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="133"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="133"/>
+      <c r="W2" s="179"/>
+      <c r="X2" s="180"/>
+      <c r="Y2" s="180"/>
+      <c r="Z2" s="180"/>
+      <c r="AA2" s="180"/>
+      <c r="AB2" s="180"/>
+      <c r="AC2" s="180"/>
+      <c r="AD2" s="180"/>
+      <c r="AE2" s="181"/>
     </row>
     <row r="3" spans="1:31" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="104" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="105" t="s">
         <v>226</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="106"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="171"/>
-      <c r="W3" s="160" t="s">
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="107"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="185"/>
+      <c r="P3" s="185"/>
+      <c r="Q3" s="185"/>
+      <c r="R3" s="185"/>
+      <c r="S3" s="185"/>
+      <c r="T3" s="185"/>
+      <c r="U3" s="186"/>
+      <c r="W3" s="175" t="s">
         <v>224</v>
       </c>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="157"/>
-      <c r="AB3" s="160" t="s">
+      <c r="X3" s="171"/>
+      <c r="Y3" s="171"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="175" t="s">
         <v>227</v>
       </c>
-      <c r="AC3" s="167"/>
-      <c r="AD3" s="167"/>
-      <c r="AE3" s="168"/>
+      <c r="AC3" s="182"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="183"/>
     </row>
     <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="A4" s="41" t="s">
@@ -7145,26 +7198,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="21">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="187" t="s">
         <v>252</v>
       </c>
-      <c r="C2" s="172"/>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" customHeight="1">
       <c r="B3" s="46"/>
       <c r="C3" s="47" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="173" t="s">
+      <c r="D3" s="188" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="173"/>
-      <c r="F3" s="173"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
       <c r="G3" s="47"/>
       <c r="H3" s="45"/>
     </row>
@@ -7174,10 +7227,10 @@
       <c r="D4" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="173" t="s">
+      <c r="E4" s="188" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="173"/>
+      <c r="F4" s="188"/>
       <c r="G4" s="47"/>
       <c r="H4" s="45"/>
     </row>
@@ -7187,10 +7240,10 @@
       <c r="D5" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="188" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="188"/>
       <c r="G5" s="47"/>
       <c r="H5" s="45"/>
     </row>
@@ -7631,7 +7684,7 @@
   <dimension ref="B1:V36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7685,34 +7738,34 @@
       <c r="V2"/>
     </row>
     <row r="3" spans="2:22" ht="19.5" customHeight="1">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="70"/>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
-      <c r="K3" s="104" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
+      <c r="K3" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="N3" s="104" t="s">
+      <c r="L3" s="107"/>
+      <c r="N3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="106"/>
-      <c r="T3" s="104" t="s">
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="107"/>
+      <c r="T3" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="105"/>
-      <c r="V3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="107"/>
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="41" t="s">
@@ -7941,8 +7994,8 @@
   </sheetPr>
   <dimension ref="B1:M38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7950,8 +8003,7 @@
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="43" customWidth="1"/>
     <col min="3" max="3" width="18.125" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="4" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4" style="43" customWidth="1"/>
   </cols>
@@ -7969,21 +8021,21 @@
       <c r="G3"/>
     </row>
     <row r="4" spans="2:13" ht="21">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
       <c r="G4" s="70"/>
-      <c r="I4" s="107" t="s">
+      <c r="I4" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="108"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="41" t="s">
@@ -8002,13 +8054,13 @@
         <v>25</v>
       </c>
       <c r="G5" s="71"/>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="26" t="s">
@@ -8021,11 +8073,11 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="26"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="26"/>
@@ -8034,11 +8086,11 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="26"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
     </row>
     <row r="8" spans="2:13">
       <c r="B8" s="26"/>
@@ -8047,11 +8099,11 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="26"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="26"/>
@@ -8060,18 +8112,18 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="26"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
     </row>
     <row r="10" spans="2:13">
-      <c r="I10" s="110"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
     </row>
     <row r="11" spans="2:13">
       <c r="B11" s="26"/>
@@ -8080,197 +8132,197 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="26"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
     </row>
     <row r="12" spans="2:13">
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
     </row>
     <row r="13" spans="2:13">
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
     </row>
     <row r="14" spans="2:13">
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="2:13">
-      <c r="I15" s="110"/>
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
     </row>
     <row r="16" spans="2:13">
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
     </row>
     <row r="17" spans="9:13">
-      <c r="I17" s="110"/>
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
     </row>
     <row r="18" spans="9:13">
-      <c r="I18" s="110"/>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
     </row>
     <row r="19" spans="9:13">
-      <c r="I19" s="110"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
     </row>
     <row r="20" spans="9:13">
-      <c r="I20" s="110"/>
-      <c r="J20" s="110"/>
-      <c r="K20" s="110"/>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
     </row>
     <row r="22" spans="9:13" ht="21">
-      <c r="I22" s="107" t="s">
+      <c r="I22" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="108"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
+      <c r="M22" s="109"/>
     </row>
     <row r="23" spans="9:13">
-      <c r="I23" s="109" t="s">
+      <c r="I23" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="111"/>
+      <c r="L23" s="111"/>
+      <c r="M23" s="111"/>
     </row>
     <row r="24" spans="9:13">
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="110"/>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
     </row>
     <row r="25" spans="9:13">
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="110"/>
-      <c r="M25" s="110"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
     </row>
     <row r="26" spans="9:13">
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="111"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="111"/>
     </row>
     <row r="27" spans="9:13">
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
     </row>
     <row r="28" spans="9:13">
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
     </row>
     <row r="29" spans="9:13">
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
     </row>
     <row r="30" spans="9:13">
-      <c r="I30" s="110"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="110"/>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
     </row>
     <row r="31" spans="9:13">
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
     </row>
     <row r="32" spans="9:13">
-      <c r="I32" s="110"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="110"/>
-      <c r="M32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
     </row>
     <row r="33" spans="9:13">
-      <c r="I33" s="110"/>
-      <c r="J33" s="110"/>
-      <c r="K33" s="110"/>
-      <c r="L33" s="110"/>
-      <c r="M33" s="110"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
     </row>
     <row r="34" spans="9:13">
-      <c r="I34" s="110"/>
-      <c r="J34" s="110"/>
-      <c r="K34" s="110"/>
-      <c r="L34" s="110"/>
-      <c r="M34" s="110"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
     </row>
     <row r="35" spans="9:13">
-      <c r="I35" s="110"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="110"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
     </row>
     <row r="36" spans="9:13">
-      <c r="I36" s="110"/>
-      <c r="J36" s="110"/>
-      <c r="K36" s="110"/>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
     </row>
     <row r="37" spans="9:13">
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="110"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
     </row>
     <row r="38" spans="9:13">
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="111"/>
+      <c r="K38" s="111"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8282,7 +8334,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Entry" error="You can only enter a value when B6 is &quot;Property&quot;." sqref="B6:C9" xr:uid="{F0C12A19-5B7C-43E6-878B-953093678A31}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E9" xr:uid="{38182368-6668-4B08-9662-200516BB2A2C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:E9" xr:uid="{38182368-6668-4B08-9662-200516BB2A2C}">
       <formula1>"$rose,$fell,$changed,Data"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8299,7 +8351,7 @@
   <dimension ref="B1:AQ139"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8314,31 +8366,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:43">
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="E1" s="174"/>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="E1"/>
     </row>
     <row r="2" spans="2:43">
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="E2" s="174"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="E2"/>
       <c r="I2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:43">
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="E3" s="174"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="E3"/>
       <c r="I3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="2:43" ht="15">
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="E4" s="174"/>
-      <c r="I4" s="175" t="s">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="E4"/>
+      <c r="I4" s="76" t="s">
         <v>58</v>
       </c>
     </row>
@@ -8371,33 +8423,33 @@
       <c r="E8" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="V8" s="111" t="s">
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="O8" s="114"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="114"/>
+      <c r="R8" s="114"/>
+      <c r="S8" s="114"/>
+      <c r="V8" s="113" t="s">
         <v>61</v>
       </c>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
+      <c r="Y8" s="114"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="114"/>
+      <c r="AB8" s="114"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="114"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="114"/>
+      <c r="AG8" s="114"/>
       <c r="AH8" s="74"/>
       <c r="AI8" s="74"/>
       <c r="AJ8" s="74"/>
@@ -8420,33 +8472,33 @@
       <c r="E9" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="115" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="V9" s="114" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="110"/>
+      <c r="R9" s="110"/>
+      <c r="S9" s="110"/>
+      <c r="V9" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="W9" s="114"/>
-      <c r="X9" s="114"/>
-      <c r="Y9" s="114"/>
-      <c r="Z9" s="114"/>
-      <c r="AA9" s="114"/>
-      <c r="AB9" s="114"/>
-      <c r="AC9" s="114"/>
-      <c r="AD9" s="114"/>
-      <c r="AE9" s="114"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="114"/>
+      <c r="W9" s="112"/>
+      <c r="X9" s="112"/>
+      <c r="Y9" s="112"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="112"/>
+      <c r="AC9" s="112"/>
+      <c r="AD9" s="112"/>
+      <c r="AE9" s="112"/>
+      <c r="AF9" s="112"/>
+      <c r="AG9" s="112"/>
       <c r="AH9" s="74"/>
       <c r="AI9" s="74"/>
       <c r="AJ9" s="74"/>
@@ -8469,29 +8521,29 @@
       <c r="E10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="109"/>
-      <c r="R10" s="109"/>
-      <c r="S10" s="109"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="110"/>
+      <c r="R10" s="110"/>
+      <c r="S10" s="110"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="112"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="112"/>
       <c r="AH10" s="74"/>
       <c r="AI10" s="74"/>
       <c r="AJ10" s="74"/>
@@ -8514,29 +8566,29 @@
       <c r="E11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114"/>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
-      <c r="AD11" s="114"/>
-      <c r="AE11" s="114"/>
-      <c r="AF11" s="114"/>
-      <c r="AG11" s="114"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="110"/>
+      <c r="R11" s="110"/>
+      <c r="S11" s="110"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
       <c r="AH11" s="74"/>
       <c r="AI11" s="74"/>
       <c r="AJ11" s="74"/>
@@ -8553,29 +8605,29 @@
       <c r="C12" s="26"/>
       <c r="D12" s="37"/>
       <c r="E12" s="27"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109"/>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109"/>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="V12" s="114"/>
-      <c r="W12" s="114"/>
-      <c r="X12" s="114"/>
-      <c r="Y12" s="114"/>
-      <c r="Z12" s="114"/>
-      <c r="AA12" s="114"/>
-      <c r="AB12" s="114"/>
-      <c r="AC12" s="114"/>
-      <c r="AD12" s="114"/>
-      <c r="AE12" s="114"/>
-      <c r="AF12" s="114"/>
-      <c r="AG12" s="114"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
+      <c r="S12" s="110"/>
+      <c r="V12" s="112"/>
+      <c r="W12" s="112"/>
+      <c r="X12" s="112"/>
+      <c r="Y12" s="112"/>
+      <c r="Z12" s="112"/>
+      <c r="AA12" s="112"/>
+      <c r="AB12" s="112"/>
+      <c r="AC12" s="112"/>
+      <c r="AD12" s="112"/>
+      <c r="AE12" s="112"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="112"/>
       <c r="AH12" s="74"/>
       <c r="AI12" s="74"/>
       <c r="AJ12" s="74"/>
@@ -8592,29 +8644,29 @@
       <c r="C13" s="26"/>
       <c r="D13" s="1"/>
       <c r="E13" s="27"/>
-      <c r="I13" s="109"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="109"/>
-      <c r="P13" s="109"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="114"/>
-      <c r="X13" s="114"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="114"/>
-      <c r="AB13" s="114"/>
-      <c r="AC13" s="114"/>
-      <c r="AD13" s="114"/>
-      <c r="AE13" s="114"/>
-      <c r="AF13" s="114"/>
-      <c r="AG13" s="114"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="110"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
+      <c r="X13" s="112"/>
+      <c r="Y13" s="112"/>
+      <c r="Z13" s="112"/>
+      <c r="AA13" s="112"/>
+      <c r="AB13" s="112"/>
+      <c r="AC13" s="112"/>
+      <c r="AD13" s="112"/>
+      <c r="AE13" s="112"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="112"/>
       <c r="AH13" s="74"/>
       <c r="AI13" s="74"/>
       <c r="AJ13" s="74"/>
@@ -8629,29 +8681,29 @@
     <row r="14" spans="2:43">
       <c r="B14" s="1"/>
       <c r="C14" s="26"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="V14" s="114"/>
-      <c r="W14" s="114"/>
-      <c r="X14" s="114"/>
-      <c r="Y14" s="114"/>
-      <c r="Z14" s="114"/>
-      <c r="AA14" s="114"/>
-      <c r="AB14" s="114"/>
-      <c r="AC14" s="114"/>
-      <c r="AD14" s="114"/>
-      <c r="AE14" s="114"/>
-      <c r="AF14" s="114"/>
-      <c r="AG14" s="114"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="110"/>
+      <c r="V14" s="112"/>
+      <c r="W14" s="112"/>
+      <c r="X14" s="112"/>
+      <c r="Y14" s="112"/>
+      <c r="Z14" s="112"/>
+      <c r="AA14" s="112"/>
+      <c r="AB14" s="112"/>
+      <c r="AC14" s="112"/>
+      <c r="AD14" s="112"/>
+      <c r="AE14" s="112"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="112"/>
       <c r="AH14" s="74"/>
       <c r="AI14" s="74"/>
       <c r="AJ14" s="74"/>
@@ -8665,29 +8717,29 @@
     </row>
     <row r="15" spans="2:43">
       <c r="B15"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
-      <c r="K15" s="109"/>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="V15" s="114"/>
-      <c r="W15" s="114"/>
-      <c r="X15" s="114"/>
-      <c r="Y15" s="114"/>
-      <c r="Z15" s="114"/>
-      <c r="AA15" s="114"/>
-      <c r="AB15" s="114"/>
-      <c r="AC15" s="114"/>
-      <c r="AD15" s="114"/>
-      <c r="AE15" s="114"/>
-      <c r="AF15" s="114"/>
-      <c r="AG15" s="114"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="V15" s="112"/>
+      <c r="W15" s="112"/>
+      <c r="X15" s="112"/>
+      <c r="Y15" s="112"/>
+      <c r="Z15" s="112"/>
+      <c r="AA15" s="112"/>
+      <c r="AB15" s="112"/>
+      <c r="AC15" s="112"/>
+      <c r="AD15" s="112"/>
+      <c r="AE15" s="112"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="112"/>
       <c r="AH15" s="74"/>
       <c r="AI15" s="74"/>
       <c r="AJ15" s="74"/>
@@ -8701,29 +8753,29 @@
     </row>
     <row r="16" spans="2:43">
       <c r="B16"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="109"/>
-      <c r="P16" s="109"/>
-      <c r="Q16" s="109"/>
-      <c r="R16" s="109"/>
-      <c r="S16" s="109"/>
-      <c r="V16" s="114"/>
-      <c r="W16" s="114"/>
-      <c r="X16" s="114"/>
-      <c r="Y16" s="114"/>
-      <c r="Z16" s="114"/>
-      <c r="AA16" s="114"/>
-      <c r="AB16" s="114"/>
-      <c r="AC16" s="114"/>
-      <c r="AD16" s="114"/>
-      <c r="AE16" s="114"/>
-      <c r="AF16" s="114"/>
-      <c r="AG16" s="114"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="112"/>
+      <c r="Z16" s="112"/>
+      <c r="AA16" s="112"/>
+      <c r="AB16" s="112"/>
+      <c r="AC16" s="112"/>
+      <c r="AD16" s="112"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="112"/>
       <c r="AH16" s="74"/>
       <c r="AI16" s="74"/>
       <c r="AJ16" s="74"/>
@@ -8737,29 +8789,29 @@
     </row>
     <row r="17" spans="2:43">
       <c r="B17"/>
-      <c r="I17" s="109"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="109"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="V17" s="114"/>
-      <c r="W17" s="114"/>
-      <c r="X17" s="114"/>
-      <c r="Y17" s="114"/>
-      <c r="Z17" s="114"/>
-      <c r="AA17" s="114"/>
-      <c r="AB17" s="114"/>
-      <c r="AC17" s="114"/>
-      <c r="AD17" s="114"/>
-      <c r="AE17" s="114"/>
-      <c r="AF17" s="114"/>
-      <c r="AG17" s="114"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="V17" s="112"/>
+      <c r="W17" s="112"/>
+      <c r="X17" s="112"/>
+      <c r="Y17" s="112"/>
+      <c r="Z17" s="112"/>
+      <c r="AA17" s="112"/>
+      <c r="AB17" s="112"/>
+      <c r="AC17" s="112"/>
+      <c r="AD17" s="112"/>
+      <c r="AE17" s="112"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="112"/>
       <c r="AH17" s="74"/>
       <c r="AI17" s="74"/>
       <c r="AJ17" s="74"/>
@@ -8773,29 +8825,29 @@
     </row>
     <row r="18" spans="2:43">
       <c r="B18"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="V18" s="114"/>
-      <c r="W18" s="114"/>
-      <c r="X18" s="114"/>
-      <c r="Y18" s="114"/>
-      <c r="Z18" s="114"/>
-      <c r="AA18" s="114"/>
-      <c r="AB18" s="114"/>
-      <c r="AC18" s="114"/>
-      <c r="AD18" s="114"/>
-      <c r="AE18" s="114"/>
-      <c r="AF18" s="114"/>
-      <c r="AG18" s="114"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+      <c r="L18" s="110"/>
+      <c r="M18" s="110"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
+      <c r="R18" s="110"/>
+      <c r="S18" s="110"/>
+      <c r="V18" s="112"/>
+      <c r="W18" s="112"/>
+      <c r="X18" s="112"/>
+      <c r="Y18" s="112"/>
+      <c r="Z18" s="112"/>
+      <c r="AA18" s="112"/>
+      <c r="AB18" s="112"/>
+      <c r="AC18" s="112"/>
+      <c r="AD18" s="112"/>
+      <c r="AE18" s="112"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="112"/>
       <c r="AH18" s="74"/>
       <c r="AI18" s="74"/>
       <c r="AJ18" s="74"/>
@@ -8820,18 +8872,18 @@
       <c r="Q19" s="73"/>
       <c r="R19" s="73"/>
       <c r="S19" s="73"/>
-      <c r="V19" s="114"/>
-      <c r="W19" s="114"/>
-      <c r="X19" s="114"/>
-      <c r="Y19" s="114"/>
-      <c r="Z19" s="114"/>
-      <c r="AA19" s="114"/>
-      <c r="AB19" s="114"/>
-      <c r="AC19" s="114"/>
-      <c r="AD19" s="114"/>
-      <c r="AE19" s="114"/>
-      <c r="AF19" s="114"/>
-      <c r="AG19" s="114"/>
+      <c r="V19" s="112"/>
+      <c r="W19" s="112"/>
+      <c r="X19" s="112"/>
+      <c r="Y19" s="112"/>
+      <c r="Z19" s="112"/>
+      <c r="AA19" s="112"/>
+      <c r="AB19" s="112"/>
+      <c r="AC19" s="112"/>
+      <c r="AD19" s="112"/>
+      <c r="AE19" s="112"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="112"/>
       <c r="AH19" s="74"/>
       <c r="AI19" s="74"/>
       <c r="AJ19" s="74"/>
@@ -8856,18 +8908,18 @@
       <c r="Q20" s="73"/>
       <c r="R20" s="73"/>
       <c r="S20" s="73"/>
-      <c r="V20" s="114"/>
-      <c r="W20" s="114"/>
-      <c r="X20" s="114"/>
-      <c r="Y20" s="114"/>
-      <c r="Z20" s="114"/>
-      <c r="AA20" s="114"/>
-      <c r="AB20" s="114"/>
-      <c r="AC20" s="114"/>
-      <c r="AD20" s="114"/>
-      <c r="AE20" s="114"/>
-      <c r="AF20" s="114"/>
-      <c r="AG20" s="114"/>
+      <c r="V20" s="112"/>
+      <c r="W20" s="112"/>
+      <c r="X20" s="112"/>
+      <c r="Y20" s="112"/>
+      <c r="Z20" s="112"/>
+      <c r="AA20" s="112"/>
+      <c r="AB20" s="112"/>
+      <c r="AC20" s="112"/>
+      <c r="AD20" s="112"/>
+      <c r="AE20" s="112"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="112"/>
       <c r="AH20" s="74"/>
       <c r="AI20" s="74"/>
       <c r="AJ20" s="74"/>
@@ -8881,31 +8933,31 @@
     </row>
     <row r="21" spans="2:43" ht="18.75">
       <c r="B21"/>
-      <c r="I21" s="111" t="s">
+      <c r="I21" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="112"/>
-      <c r="S21" s="112"/>
-      <c r="V21" s="114"/>
-      <c r="W21" s="114"/>
-      <c r="X21" s="114"/>
-      <c r="Y21" s="114"/>
-      <c r="Z21" s="114"/>
-      <c r="AA21" s="114"/>
-      <c r="AB21" s="114"/>
-      <c r="AC21" s="114"/>
-      <c r="AD21" s="114"/>
-      <c r="AE21" s="114"/>
-      <c r="AF21" s="114"/>
-      <c r="AG21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
+      <c r="Q21" s="114"/>
+      <c r="R21" s="114"/>
+      <c r="S21" s="114"/>
+      <c r="V21" s="112"/>
+      <c r="W21" s="112"/>
+      <c r="X21" s="112"/>
+      <c r="Y21" s="112"/>
+      <c r="Z21" s="112"/>
+      <c r="AA21" s="112"/>
+      <c r="AB21" s="112"/>
+      <c r="AC21" s="112"/>
+      <c r="AD21" s="112"/>
+      <c r="AE21" s="112"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="112"/>
       <c r="AH21" s="74"/>
       <c r="AI21" s="74"/>
       <c r="AJ21" s="74"/>
@@ -8919,31 +8971,31 @@
     </row>
     <row r="22" spans="2:43" ht="13.5" customHeight="1">
       <c r="B22"/>
-      <c r="I22" s="113" t="s">
+      <c r="I22" s="115" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="V22" s="114"/>
-      <c r="W22" s="114"/>
-      <c r="X22" s="114"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="114"/>
-      <c r="AA22" s="114"/>
-      <c r="AB22" s="114"/>
-      <c r="AC22" s="114"/>
-      <c r="AD22" s="114"/>
-      <c r="AE22" s="114"/>
-      <c r="AF22" s="114"/>
-      <c r="AG22" s="114"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+      <c r="L22" s="110"/>
+      <c r="M22" s="110"/>
+      <c r="N22" s="110"/>
+      <c r="O22" s="110"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="110"/>
+      <c r="V22" s="112"/>
+      <c r="W22" s="112"/>
+      <c r="X22" s="112"/>
+      <c r="Y22" s="112"/>
+      <c r="Z22" s="112"/>
+      <c r="AA22" s="112"/>
+      <c r="AB22" s="112"/>
+      <c r="AC22" s="112"/>
+      <c r="AD22" s="112"/>
+      <c r="AE22" s="112"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="112"/>
       <c r="AH22" s="74"/>
       <c r="AI22" s="74"/>
       <c r="AJ22" s="74"/>
@@ -8957,29 +9009,29 @@
     </row>
     <row r="23" spans="2:43">
       <c r="B23"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="V23" s="114"/>
-      <c r="W23" s="114"/>
-      <c r="X23" s="114"/>
-      <c r="Y23" s="114"/>
-      <c r="Z23" s="114"/>
-      <c r="AA23" s="114"/>
-      <c r="AB23" s="114"/>
-      <c r="AC23" s="114"/>
-      <c r="AD23" s="114"/>
-      <c r="AE23" s="114"/>
-      <c r="AF23" s="114"/>
-      <c r="AG23" s="114"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+      <c r="L23" s="110"/>
+      <c r="M23" s="110"/>
+      <c r="N23" s="110"/>
+      <c r="O23" s="110"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="110"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
+      <c r="Z23" s="112"/>
+      <c r="AA23" s="112"/>
+      <c r="AB23" s="112"/>
+      <c r="AC23" s="112"/>
+      <c r="AD23" s="112"/>
+      <c r="AE23" s="112"/>
+      <c r="AF23" s="112"/>
+      <c r="AG23" s="112"/>
       <c r="AH23" s="74"/>
       <c r="AI23" s="74"/>
       <c r="AJ23" s="74"/>
@@ -8993,29 +9045,29 @@
     </row>
     <row r="24" spans="2:43">
       <c r="B24"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="V24" s="114"/>
-      <c r="W24" s="114"/>
-      <c r="X24" s="114"/>
-      <c r="Y24" s="114"/>
-      <c r="Z24" s="114"/>
-      <c r="AA24" s="114"/>
-      <c r="AB24" s="114"/>
-      <c r="AC24" s="114"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="114"/>
-      <c r="AF24" s="114"/>
-      <c r="AG24" s="114"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="112"/>
+      <c r="Y24" s="112"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
+      <c r="AF24" s="112"/>
+      <c r="AG24" s="112"/>
       <c r="AH24" s="74"/>
       <c r="AI24" s="74"/>
       <c r="AJ24" s="74"/>
@@ -9029,29 +9081,29 @@
     </row>
     <row r="25" spans="2:43">
       <c r="B25"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="V25" s="114"/>
-      <c r="W25" s="114"/>
-      <c r="X25" s="114"/>
-      <c r="Y25" s="114"/>
-      <c r="Z25" s="114"/>
-      <c r="AA25" s="114"/>
-      <c r="AB25" s="114"/>
-      <c r="AC25" s="114"/>
-      <c r="AD25" s="114"/>
-      <c r="AE25" s="114"/>
-      <c r="AF25" s="114"/>
-      <c r="AG25" s="114"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="V25" s="112"/>
+      <c r="W25" s="112"/>
+      <c r="X25" s="112"/>
+      <c r="Y25" s="112"/>
+      <c r="Z25" s="112"/>
+      <c r="AA25" s="112"/>
+      <c r="AB25" s="112"/>
+      <c r="AC25" s="112"/>
+      <c r="AD25" s="112"/>
+      <c r="AE25" s="112"/>
+      <c r="AF25" s="112"/>
+      <c r="AG25" s="112"/>
       <c r="AH25" s="74"/>
       <c r="AI25" s="74"/>
       <c r="AJ25" s="74"/>
@@ -9065,29 +9117,29 @@
     </row>
     <row r="26" spans="2:43">
       <c r="B26"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="V26" s="114"/>
-      <c r="W26" s="114"/>
-      <c r="X26" s="114"/>
-      <c r="Y26" s="114"/>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="114"/>
-      <c r="AB26" s="114"/>
-      <c r="AC26" s="114"/>
-      <c r="AD26" s="114"/>
-      <c r="AE26" s="114"/>
-      <c r="AF26" s="114"/>
-      <c r="AG26" s="114"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="112"/>
+      <c r="Y26" s="112"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
+      <c r="AF26" s="112"/>
+      <c r="AG26" s="112"/>
       <c r="AH26" s="74"/>
       <c r="AI26" s="74"/>
       <c r="AJ26" s="74"/>
@@ -9101,29 +9153,29 @@
     </row>
     <row r="27" spans="2:43" ht="13.5" customHeight="1">
       <c r="B27"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="109"/>
-      <c r="V27" s="114"/>
-      <c r="W27" s="114"/>
-      <c r="X27" s="114"/>
-      <c r="Y27" s="114"/>
-      <c r="Z27" s="114"/>
-      <c r="AA27" s="114"/>
-      <c r="AB27" s="114"/>
-      <c r="AC27" s="114"/>
-      <c r="AD27" s="114"/>
-      <c r="AE27" s="114"/>
-      <c r="AF27" s="114"/>
-      <c r="AG27" s="114"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="V27" s="112"/>
+      <c r="W27" s="112"/>
+      <c r="X27" s="112"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="112"/>
+      <c r="AA27" s="112"/>
+      <c r="AB27" s="112"/>
+      <c r="AC27" s="112"/>
+      <c r="AD27" s="112"/>
+      <c r="AE27" s="112"/>
+      <c r="AF27" s="112"/>
+      <c r="AG27" s="112"/>
       <c r="AH27" s="74"/>
       <c r="AI27" s="74"/>
       <c r="AJ27" s="74"/>
@@ -9137,17 +9189,17 @@
     </row>
     <row r="28" spans="2:43">
       <c r="B28"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="110"/>
+      <c r="O28" s="110"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="110"/>
+      <c r="R28" s="110"/>
+      <c r="S28" s="110"/>
       <c r="V28" s="74"/>
       <c r="W28" s="74"/>
       <c r="X28" s="74"/>
@@ -9173,17 +9225,17 @@
     </row>
     <row r="29" spans="2:43">
       <c r="B29"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
-      <c r="Q29" s="109"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
       <c r="V29" s="74"/>
       <c r="W29" s="74"/>
       <c r="X29" s="74"/>
@@ -9209,17 +9261,17 @@
     </row>
     <row r="30" spans="2:43">
       <c r="B30"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+      <c r="L30" s="110"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="110"/>
+      <c r="O30" s="110"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="110"/>
+      <c r="R30" s="110"/>
+      <c r="S30" s="110"/>
       <c r="V30" s="74"/>
       <c r="W30" s="74"/>
       <c r="X30" s="74"/>
@@ -9245,17 +9297,17 @@
     </row>
     <row r="31" spans="2:43">
       <c r="B31"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
       <c r="V31" s="74"/>
       <c r="W31" s="74"/>
       <c r="X31" s="74"/>
@@ -9281,145 +9333,145 @@
     </row>
     <row r="32" spans="2:43">
       <c r="B32"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+      <c r="L32" s="110"/>
+      <c r="M32" s="110"/>
+      <c r="N32" s="110"/>
+      <c r="O32" s="110"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="110"/>
+      <c r="R32" s="110"/>
+      <c r="S32" s="110"/>
     </row>
     <row r="33" spans="2:19">
       <c r="B33"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109"/>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="110"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
     </row>
     <row r="34" spans="2:19">
       <c r="B34"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109"/>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+      <c r="L34" s="110"/>
+      <c r="M34" s="110"/>
+      <c r="N34" s="110"/>
+      <c r="O34" s="110"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="110"/>
+      <c r="R34" s="110"/>
+      <c r="S34" s="110"/>
     </row>
     <row r="35" spans="2:19">
       <c r="B35"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
     </row>
     <row r="36" spans="2:19">
       <c r="B36"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="109"/>
-      <c r="P36" s="109"/>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="110"/>
     </row>
     <row r="37" spans="2:19">
       <c r="B37"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
     </row>
     <row r="38" spans="2:19">
       <c r="B38"/>
-      <c r="I38" s="109"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="109"/>
-      <c r="P38" s="109"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="110"/>
+      <c r="N38" s="110"/>
+      <c r="O38" s="110"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="110"/>
     </row>
     <row r="39" spans="2:19">
       <c r="B39"/>
       <c r="F39" s="7"/>
-      <c r="I39" s="109"/>
-      <c r="J39" s="109"/>
-      <c r="K39" s="109"/>
-      <c r="L39" s="109"/>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-      <c r="S39" s="109"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+      <c r="L39" s="110"/>
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="S39" s="110"/>
     </row>
     <row r="40" spans="2:19">
       <c r="B40"/>
       <c r="F40" s="7"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="109"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="110"/>
+      <c r="S40" s="110"/>
     </row>
     <row r="41" spans="2:19">
       <c r="B41"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="109"/>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="110"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="110"/>
     </row>
     <row r="42" spans="2:19">
       <c r="B42"/>
@@ -9429,400 +9481,400 @@
     </row>
     <row r="44" spans="2:19" ht="18.75">
       <c r="B44"/>
-      <c r="I44" s="111" t="s">
+      <c r="I44" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="112"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="112"/>
-      <c r="Q44" s="112"/>
-      <c r="R44" s="112"/>
-      <c r="S44" s="112"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
+      <c r="O44" s="114"/>
+      <c r="P44" s="114"/>
+      <c r="Q44" s="114"/>
+      <c r="R44" s="114"/>
+      <c r="S44" s="114"/>
     </row>
     <row r="45" spans="2:19" ht="13.5" customHeight="1">
       <c r="B45"/>
-      <c r="I45" s="113" t="s">
+      <c r="I45" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="109"/>
-      <c r="O45" s="109"/>
-      <c r="P45" s="109"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
     </row>
     <row r="46" spans="2:19">
       <c r="B46"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="109"/>
-      <c r="P46" s="109"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
     </row>
     <row r="47" spans="2:19">
       <c r="B47"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="109"/>
-      <c r="L47" s="109"/>
-      <c r="M47" s="109"/>
-      <c r="N47" s="109"/>
-      <c r="O47" s="109"/>
-      <c r="P47" s="109"/>
-      <c r="Q47" s="109"/>
-      <c r="R47" s="109"/>
-      <c r="S47" s="109"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="110"/>
     </row>
     <row r="48" spans="2:19">
       <c r="B48"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+      <c r="L48" s="110"/>
+      <c r="M48" s="110"/>
+      <c r="N48" s="110"/>
+      <c r="O48" s="110"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="110"/>
+      <c r="R48" s="110"/>
+      <c r="S48" s="110"/>
     </row>
     <row r="49" spans="2:24">
       <c r="B49"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="109"/>
-      <c r="L49" s="109"/>
-      <c r="M49" s="109"/>
-      <c r="N49" s="109"/>
-      <c r="O49" s="109"/>
-      <c r="P49" s="109"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="109"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="110"/>
+      <c r="O49" s="110"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="110"/>
     </row>
     <row r="50" spans="2:24">
       <c r="B50"/>
-      <c r="I50" s="109"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="109"/>
-      <c r="O50" s="109"/>
-      <c r="P50" s="109"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+      <c r="L50" s="110"/>
+      <c r="M50" s="110"/>
+      <c r="N50" s="110"/>
+      <c r="O50" s="110"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="110"/>
+      <c r="R50" s="110"/>
+      <c r="S50" s="110"/>
     </row>
     <row r="51" spans="2:24">
       <c r="B51"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="109"/>
-      <c r="K51" s="109"/>
-      <c r="L51" s="109"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="109"/>
-      <c r="O51" s="109"/>
-      <c r="P51" s="109"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+      <c r="L51" s="110"/>
+      <c r="M51" s="110"/>
+      <c r="N51" s="110"/>
+      <c r="O51" s="110"/>
+      <c r="P51" s="110"/>
+      <c r="Q51" s="110"/>
+      <c r="R51" s="110"/>
+      <c r="S51" s="110"/>
     </row>
     <row r="52" spans="2:24">
       <c r="B52"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="L52" s="109"/>
-      <c r="M52" s="109"/>
-      <c r="N52" s="109"/>
-      <c r="O52" s="109"/>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
+      <c r="K52" s="110"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="110"/>
+      <c r="N52" s="110"/>
+      <c r="O52" s="110"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="110"/>
+      <c r="R52" s="110"/>
+      <c r="S52" s="110"/>
     </row>
     <row r="53" spans="2:24">
       <c r="B53"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="110"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="110"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="110"/>
     </row>
     <row r="54" spans="2:24">
       <c r="B54"/>
-      <c r="I54" s="109"/>
-      <c r="J54" s="109"/>
-      <c r="K54" s="109"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="109"/>
-      <c r="N54" s="109"/>
-      <c r="O54" s="109"/>
-      <c r="P54" s="109"/>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="110"/>
+      <c r="L54" s="110"/>
+      <c r="M54" s="110"/>
+      <c r="N54" s="110"/>
+      <c r="O54" s="110"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="110"/>
+      <c r="R54" s="110"/>
+      <c r="S54" s="110"/>
     </row>
     <row r="55" spans="2:24">
       <c r="B55"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="109"/>
-      <c r="L55" s="109"/>
-      <c r="M55" s="109"/>
-      <c r="N55" s="109"/>
-      <c r="O55" s="109"/>
-      <c r="P55" s="109"/>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="109"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+      <c r="L55" s="110"/>
+      <c r="M55" s="110"/>
+      <c r="N55" s="110"/>
+      <c r="O55" s="110"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="110"/>
+      <c r="R55" s="110"/>
+      <c r="S55" s="110"/>
     </row>
     <row r="56" spans="2:24">
       <c r="B56"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="109"/>
-      <c r="O56" s="109"/>
-      <c r="P56" s="109"/>
-      <c r="Q56" s="109"/>
-      <c r="R56" s="109"/>
-      <c r="S56" s="109"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+      <c r="L56" s="110"/>
+      <c r="M56" s="110"/>
+      <c r="N56" s="110"/>
+      <c r="O56" s="110"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="110"/>
+      <c r="R56" s="110"/>
+      <c r="S56" s="110"/>
     </row>
     <row r="57" spans="2:24">
       <c r="B57"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="109"/>
-      <c r="L57" s="109"/>
-      <c r="M57" s="109"/>
-      <c r="N57" s="109"/>
-      <c r="O57" s="109"/>
-      <c r="P57" s="109"/>
-      <c r="Q57" s="109"/>
-      <c r="R57" s="109"/>
-      <c r="S57" s="109"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+      <c r="L57" s="110"/>
+      <c r="M57" s="110"/>
+      <c r="N57" s="110"/>
+      <c r="O57" s="110"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="110"/>
+      <c r="R57" s="110"/>
+      <c r="S57" s="110"/>
     </row>
     <row r="58" spans="2:24">
       <c r="B58"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="109"/>
-      <c r="L58" s="109"/>
-      <c r="M58" s="109"/>
-      <c r="N58" s="109"/>
-      <c r="O58" s="109"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="109"/>
-      <c r="R58" s="109"/>
-      <c r="S58" s="109"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="110"/>
+      <c r="L58" s="110"/>
+      <c r="M58" s="110"/>
+      <c r="N58" s="110"/>
+      <c r="O58" s="110"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="110"/>
+      <c r="R58" s="110"/>
+      <c r="S58" s="110"/>
       <c r="X58" s="75"/>
     </row>
     <row r="59" spans="2:24">
       <c r="B59"/>
-      <c r="I59" s="109"/>
-      <c r="J59" s="109"/>
-      <c r="K59" s="109"/>
-      <c r="L59" s="109"/>
-      <c r="M59" s="109"/>
-      <c r="N59" s="109"/>
-      <c r="O59" s="109"/>
-      <c r="P59" s="109"/>
-      <c r="Q59" s="109"/>
-      <c r="R59" s="109"/>
-      <c r="S59" s="109"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="110"/>
+      <c r="L59" s="110"/>
+      <c r="M59" s="110"/>
+      <c r="N59" s="110"/>
+      <c r="O59" s="110"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="110"/>
+      <c r="R59" s="110"/>
+      <c r="S59" s="110"/>
     </row>
     <row r="60" spans="2:24">
       <c r="B60"/>
-      <c r="I60" s="109"/>
-      <c r="J60" s="109"/>
-      <c r="K60" s="109"/>
-      <c r="L60" s="109"/>
-      <c r="M60" s="109"/>
-      <c r="N60" s="109"/>
-      <c r="O60" s="109"/>
-      <c r="P60" s="109"/>
-      <c r="Q60" s="109"/>
-      <c r="R60" s="109"/>
-      <c r="S60" s="109"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
+      <c r="L60" s="110"/>
+      <c r="M60" s="110"/>
+      <c r="N60" s="110"/>
+      <c r="O60" s="110"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="110"/>
+      <c r="R60" s="110"/>
+      <c r="S60" s="110"/>
     </row>
     <row r="61" spans="2:24">
       <c r="B61"/>
-      <c r="I61" s="109"/>
-      <c r="J61" s="109"/>
-      <c r="K61" s="109"/>
-      <c r="L61" s="109"/>
-      <c r="M61" s="109"/>
-      <c r="N61" s="109"/>
-      <c r="O61" s="109"/>
-      <c r="P61" s="109"/>
-      <c r="Q61" s="109"/>
-      <c r="R61" s="109"/>
-      <c r="S61" s="109"/>
+      <c r="I61" s="110"/>
+      <c r="J61" s="110"/>
+      <c r="K61" s="110"/>
+      <c r="L61" s="110"/>
+      <c r="M61" s="110"/>
+      <c r="N61" s="110"/>
+      <c r="O61" s="110"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="110"/>
+      <c r="R61" s="110"/>
+      <c r="S61" s="110"/>
     </row>
     <row r="62" spans="2:24">
       <c r="B62"/>
-      <c r="I62" s="109"/>
-      <c r="J62" s="109"/>
-      <c r="K62" s="109"/>
-      <c r="L62" s="109"/>
-      <c r="M62" s="109"/>
-      <c r="N62" s="109"/>
-      <c r="O62" s="109"/>
-      <c r="P62" s="109"/>
-      <c r="Q62" s="109"/>
-      <c r="R62" s="109"/>
-      <c r="S62" s="109"/>
+      <c r="I62" s="110"/>
+      <c r="J62" s="110"/>
+      <c r="K62" s="110"/>
+      <c r="L62" s="110"/>
+      <c r="M62" s="110"/>
+      <c r="N62" s="110"/>
+      <c r="O62" s="110"/>
+      <c r="P62" s="110"/>
+      <c r="Q62" s="110"/>
+      <c r="R62" s="110"/>
+      <c r="S62" s="110"/>
     </row>
     <row r="63" spans="2:24">
       <c r="B63"/>
-      <c r="I63" s="109"/>
-      <c r="J63" s="109"/>
-      <c r="K63" s="109"/>
-      <c r="L63" s="109"/>
-      <c r="M63" s="109"/>
-      <c r="N63" s="109"/>
-      <c r="O63" s="109"/>
-      <c r="P63" s="109"/>
-      <c r="Q63" s="109"/>
-      <c r="R63" s="109"/>
-      <c r="S63" s="109"/>
+      <c r="I63" s="110"/>
+      <c r="J63" s="110"/>
+      <c r="K63" s="110"/>
+      <c r="L63" s="110"/>
+      <c r="M63" s="110"/>
+      <c r="N63" s="110"/>
+      <c r="O63" s="110"/>
+      <c r="P63" s="110"/>
+      <c r="Q63" s="110"/>
+      <c r="R63" s="110"/>
+      <c r="S63" s="110"/>
     </row>
     <row r="64" spans="2:24">
       <c r="B64"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="109"/>
-      <c r="L64" s="109"/>
-      <c r="M64" s="109"/>
-      <c r="N64" s="109"/>
-      <c r="O64" s="109"/>
-      <c r="P64" s="109"/>
-      <c r="Q64" s="109"/>
-      <c r="R64" s="109"/>
-      <c r="S64" s="109"/>
+      <c r="I64" s="110"/>
+      <c r="J64" s="110"/>
+      <c r="K64" s="110"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="110"/>
+      <c r="N64" s="110"/>
+      <c r="O64" s="110"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="110"/>
+      <c r="S64" s="110"/>
     </row>
     <row r="65" spans="2:19">
       <c r="B65"/>
-      <c r="I65" s="109"/>
-      <c r="J65" s="109"/>
-      <c r="K65" s="109"/>
-      <c r="L65" s="109"/>
-      <c r="M65" s="109"/>
-      <c r="N65" s="109"/>
-      <c r="O65" s="109"/>
-      <c r="P65" s="109"/>
-      <c r="Q65" s="109"/>
-      <c r="R65" s="109"/>
-      <c r="S65" s="109"/>
+      <c r="I65" s="110"/>
+      <c r="J65" s="110"/>
+      <c r="K65" s="110"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="110"/>
     </row>
     <row r="66" spans="2:19">
       <c r="B66"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
-      <c r="L66" s="109"/>
-      <c r="M66" s="109"/>
-      <c r="N66" s="109"/>
-      <c r="O66" s="109"/>
-      <c r="P66" s="109"/>
-      <c r="Q66" s="109"/>
-      <c r="R66" s="109"/>
-      <c r="S66" s="109"/>
+      <c r="I66" s="110"/>
+      <c r="J66" s="110"/>
+      <c r="K66" s="110"/>
+      <c r="L66" s="110"/>
+      <c r="M66" s="110"/>
+      <c r="N66" s="110"/>
+      <c r="O66" s="110"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="110"/>
+      <c r="R66" s="110"/>
+      <c r="S66" s="110"/>
     </row>
     <row r="67" spans="2:19">
       <c r="B67"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="109"/>
-      <c r="L67" s="109"/>
-      <c r="M67" s="109"/>
-      <c r="N67" s="109"/>
-      <c r="O67" s="109"/>
-      <c r="P67" s="109"/>
-      <c r="Q67" s="109"/>
-      <c r="R67" s="109"/>
-      <c r="S67" s="109"/>
+      <c r="I67" s="110"/>
+      <c r="J67" s="110"/>
+      <c r="K67" s="110"/>
+      <c r="L67" s="110"/>
+      <c r="M67" s="110"/>
+      <c r="N67" s="110"/>
+      <c r="O67" s="110"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="110"/>
+      <c r="R67" s="110"/>
+      <c r="S67" s="110"/>
     </row>
     <row r="68" spans="2:19">
       <c r="B68"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
-      <c r="L68" s="109"/>
-      <c r="M68" s="109"/>
-      <c r="N68" s="109"/>
-      <c r="O68" s="109"/>
-      <c r="P68" s="109"/>
-      <c r="Q68" s="109"/>
-      <c r="R68" s="109"/>
-      <c r="S68" s="109"/>
+      <c r="I68" s="110"/>
+      <c r="J68" s="110"/>
+      <c r="K68" s="110"/>
+      <c r="L68" s="110"/>
+      <c r="M68" s="110"/>
+      <c r="N68" s="110"/>
+      <c r="O68" s="110"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="110"/>
+      <c r="R68" s="110"/>
+      <c r="S68" s="110"/>
     </row>
     <row r="69" spans="2:19">
       <c r="B69"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="109"/>
-      <c r="L69" s="109"/>
-      <c r="M69" s="109"/>
-      <c r="N69" s="109"/>
-      <c r="O69" s="109"/>
-      <c r="P69" s="109"/>
-      <c r="Q69" s="109"/>
-      <c r="R69" s="109"/>
-      <c r="S69" s="109"/>
+      <c r="I69" s="110"/>
+      <c r="J69" s="110"/>
+      <c r="K69" s="110"/>
+      <c r="L69" s="110"/>
+      <c r="M69" s="110"/>
+      <c r="N69" s="110"/>
+      <c r="O69" s="110"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
+      <c r="R69" s="110"/>
+      <c r="S69" s="110"/>
     </row>
     <row r="70" spans="2:19">
       <c r="B70"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="109"/>
-      <c r="L70" s="109"/>
-      <c r="M70" s="109"/>
-      <c r="N70" s="109"/>
-      <c r="O70" s="109"/>
-      <c r="P70" s="109"/>
-      <c r="Q70" s="109"/>
-      <c r="R70" s="109"/>
-      <c r="S70" s="109"/>
+      <c r="I70" s="110"/>
+      <c r="J70" s="110"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="110"/>
+      <c r="M70" s="110"/>
+      <c r="N70" s="110"/>
+      <c r="O70" s="110"/>
+      <c r="P70" s="110"/>
+      <c r="Q70" s="110"/>
+      <c r="R70" s="110"/>
+      <c r="S70" s="110"/>
     </row>
     <row r="71" spans="2:19">
       <c r="B71"/>
-      <c r="I71" s="109"/>
-      <c r="J71" s="109"/>
-      <c r="K71" s="109"/>
-      <c r="L71" s="109"/>
-      <c r="M71" s="109"/>
-      <c r="N71" s="109"/>
-      <c r="O71" s="109"/>
-      <c r="P71" s="109"/>
-      <c r="Q71" s="109"/>
-      <c r="R71" s="109"/>
-      <c r="S71" s="109"/>
+      <c r="I71" s="110"/>
+      <c r="J71" s="110"/>
+      <c r="K71" s="110"/>
+      <c r="L71" s="110"/>
+      <c r="M71" s="110"/>
+      <c r="N71" s="110"/>
+      <c r="O71" s="110"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="110"/>
+      <c r="R71" s="110"/>
+      <c r="S71" s="110"/>
     </row>
     <row r="72" spans="2:19">
       <c r="B72"/>
@@ -10055,7 +10107,7 @@
   <dimension ref="B1:Q36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:Q3"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10077,23 +10129,23 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="3:17" ht="19.5" customHeight="1">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="G3" s="182" t="s">
+      <c r="D3" s="107"/>
+      <c r="G3" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="184"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="127"/>
     </row>
     <row r="4" spans="3:17" ht="13.5" customHeight="1">
       <c r="C4" s="41" t="s">
@@ -10102,178 +10154,190 @@
       <c r="D4" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="185" t="s">
+      <c r="G4" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="186"/>
-      <c r="I4" s="186"/>
-      <c r="J4" s="186"/>
-      <c r="K4" s="186"/>
-      <c r="L4" s="186"/>
-      <c r="M4" s="186"/>
-      <c r="N4" s="186"/>
-      <c r="O4" s="186"/>
-      <c r="P4" s="186"/>
-      <c r="Q4" s="187"/>
-    </row>
-    <row r="5" spans="3:17">
+      <c r="H4" s="117"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="118"/>
+    </row>
+    <row r="5" spans="3:17" ht="13.5" customHeight="1">
       <c r="C5" s="26" t="s">
         <v>78</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="G5" s="177"/>
-      <c r="H5" s="176"/>
-      <c r="I5" s="176"/>
-      <c r="J5" s="176"/>
-      <c r="K5" s="176"/>
-      <c r="L5" s="176"/>
-      <c r="M5" s="176"/>
-      <c r="N5" s="176"/>
-      <c r="O5" s="176"/>
-      <c r="P5" s="176"/>
-      <c r="Q5" s="178"/>
-    </row>
-    <row r="6" spans="3:17">
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
+      <c r="P5" s="120"/>
+      <c r="Q5" s="121"/>
+    </row>
+    <row r="6" spans="3:17" ht="13.5" customHeight="1">
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="176"/>
-      <c r="I6" s="176"/>
-      <c r="J6" s="176"/>
-      <c r="K6" s="176"/>
-      <c r="L6" s="176"/>
-      <c r="M6" s="176"/>
-      <c r="N6" s="176"/>
-      <c r="O6" s="176"/>
-      <c r="P6" s="176"/>
-      <c r="Q6" s="178"/>
-    </row>
-    <row r="7" spans="3:17">
+      <c r="G6" s="119"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="121"/>
+    </row>
+    <row r="7" spans="3:17" ht="13.5" customHeight="1">
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="176"/>
-      <c r="I7" s="176"/>
-      <c r="J7" s="176"/>
-      <c r="K7" s="176"/>
-      <c r="L7" s="176"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="176"/>
-      <c r="O7" s="176"/>
-      <c r="P7" s="176"/>
-      <c r="Q7" s="178"/>
-    </row>
-    <row r="8" spans="3:17">
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="121"/>
+    </row>
+    <row r="8" spans="3:17" ht="13.5" customHeight="1">
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="176"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="176"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="178"/>
-    </row>
-    <row r="9" spans="3:17">
+      <c r="G8" s="119"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="121"/>
+    </row>
+    <row r="9" spans="3:17" ht="13.5" customHeight="1">
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="176"/>
-      <c r="K9" s="176"/>
-      <c r="L9" s="176"/>
-      <c r="M9" s="176"/>
-      <c r="N9" s="176"/>
-      <c r="O9" s="176"/>
-      <c r="P9" s="176"/>
-      <c r="Q9" s="178"/>
-    </row>
-    <row r="10" spans="3:17">
+      <c r="G9" s="119"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="121"/>
+    </row>
+    <row r="10" spans="3:17" ht="13.5" customHeight="1">
       <c r="C10" s="26"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="176"/>
-      <c r="K10" s="176"/>
-      <c r="L10" s="176"/>
-      <c r="M10" s="176"/>
-      <c r="N10" s="176"/>
-      <c r="O10" s="176"/>
-      <c r="P10" s="176"/>
-      <c r="Q10" s="178"/>
-    </row>
-    <row r="11" spans="3:17">
-      <c r="G11" s="177"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="176"/>
-      <c r="K11" s="176"/>
-      <c r="L11" s="176"/>
-      <c r="M11" s="176"/>
-      <c r="N11" s="176"/>
-      <c r="O11" s="176"/>
-      <c r="P11" s="176"/>
-      <c r="Q11" s="178"/>
-    </row>
-    <row r="12" spans="3:17">
-      <c r="G12" s="177"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="176"/>
-      <c r="K12" s="176"/>
-      <c r="L12" s="176"/>
-      <c r="M12" s="176"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="176"/>
-      <c r="P12" s="176"/>
-      <c r="Q12" s="178"/>
-    </row>
-    <row r="13" spans="3:17">
-      <c r="G13" s="177"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="176"/>
-      <c r="L13" s="176"/>
-      <c r="M13" s="176"/>
-      <c r="N13" s="176"/>
-      <c r="O13" s="176"/>
-      <c r="P13" s="176"/>
-      <c r="Q13" s="178"/>
-    </row>
-    <row r="14" spans="3:17">
-      <c r="G14" s="177"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="176"/>
-      <c r="K14" s="176"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="178"/>
-    </row>
-    <row r="15" spans="3:17">
-      <c r="G15" s="179"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="180"/>
-      <c r="O15" s="180"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="181"/>
-    </row>
+      <c r="G10" s="119"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="121"/>
+    </row>
+    <row r="11" spans="3:17" ht="13.5" customHeight="1">
+      <c r="G11" s="119"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="121"/>
+    </row>
+    <row r="12" spans="3:17" ht="13.5" customHeight="1">
+      <c r="G12" s="119"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="121"/>
+    </row>
+    <row r="13" spans="3:17" ht="13.5" customHeight="1">
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="121"/>
+    </row>
+    <row r="14" spans="3:17" ht="13.5" customHeight="1">
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="121"/>
+    </row>
+    <row r="15" spans="3:17" ht="13.5" customHeight="1">
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="123"/>
+      <c r="N15" s="123"/>
+      <c r="O15" s="123"/>
+      <c r="P15" s="123"/>
+      <c r="Q15" s="124"/>
+    </row>
+    <row r="19" ht="13.5" customHeight="1"/>
+    <row r="20" ht="13.5" customHeight="1"/>
+    <row r="21" ht="13.5" customHeight="1"/>
+    <row r="22" ht="13.5" customHeight="1"/>
+    <row r="23" ht="13.5" customHeight="1"/>
+    <row r="24" ht="13.5" customHeight="1"/>
+    <row r="25" ht="13.5" customHeight="1"/>
+    <row r="26" ht="13.5" customHeight="1"/>
+    <row r="27" ht="13.5" customHeight="1"/>
+    <row r="28" ht="13.5" customHeight="1"/>
+    <row r="29" ht="13.5" customHeight="1"/>
+    <row r="30" ht="13.5" customHeight="1"/>
     <row r="35" spans="2:2">
       <c r="B35" s="7"/>
     </row>
@@ -10301,8 +10365,8 @@
   </sheetPr>
   <dimension ref="C1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:T18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10328,26 +10392,26 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="3:20" ht="19.5" customHeight="1">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
-      <c r="J3" s="182" t="s">
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="107"/>
+      <c r="J3" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="183"/>
-      <c r="L3" s="183"/>
-      <c r="M3" s="183"/>
-      <c r="N3" s="183"/>
-      <c r="O3" s="183"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="127"/>
     </row>
     <row r="4" spans="3:20">
       <c r="C4" s="41" t="s">
@@ -10365,19 +10429,19 @@
       <c r="G4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="189" t="s">
+      <c r="J4" s="128" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="188"/>
-      <c r="L4" s="188"/>
-      <c r="M4" s="188"/>
-      <c r="N4" s="188"/>
-      <c r="O4" s="188"/>
-      <c r="P4" s="188"/>
-      <c r="Q4" s="188"/>
-      <c r="R4" s="188"/>
-      <c r="S4" s="188"/>
-      <c r="T4" s="188"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="129"/>
+      <c r="M4" s="129"/>
+      <c r="N4" s="129"/>
+      <c r="O4" s="129"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
     </row>
     <row r="5" spans="3:20" ht="15">
       <c r="C5" s="26" t="s">
@@ -10395,17 +10459,17 @@
       <c r="G5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="110"/>
-      <c r="L5" s="110"/>
-      <c r="M5" s="110"/>
-      <c r="N5" s="110"/>
-      <c r="O5" s="110"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="110"/>
-      <c r="R5" s="110"/>
-      <c r="S5" s="110"/>
-      <c r="T5" s="110"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="111"/>
+      <c r="R5" s="111"/>
+      <c r="S5" s="111"/>
+      <c r="T5" s="111"/>
     </row>
     <row r="6" spans="3:20" ht="15">
       <c r="C6" s="26"/>
@@ -10413,17 +10477,17 @@
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="27"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
+      <c r="J6" s="111"/>
+      <c r="K6" s="111"/>
+      <c r="L6" s="111"/>
+      <c r="M6" s="111"/>
+      <c r="N6" s="111"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="111"/>
+      <c r="R6" s="111"/>
+      <c r="S6" s="111"/>
+      <c r="T6" s="111"/>
     </row>
     <row r="7" spans="3:20" ht="15">
       <c r="C7" s="26" t="s">
@@ -10441,17 +10505,17 @@
       <c r="G7" s="27">
         <v>0</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="111"/>
+      <c r="P7" s="111"/>
+      <c r="Q7" s="111"/>
+      <c r="R7" s="111"/>
+      <c r="S7" s="111"/>
+      <c r="T7" s="111"/>
     </row>
     <row r="8" spans="3:20" ht="15">
       <c r="C8" s="26"/>
@@ -10459,17 +10523,17 @@
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="27"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="110"/>
-      <c r="R8" s="110"/>
-      <c r="S8" s="110"/>
-      <c r="T8" s="110"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
     </row>
     <row r="9" spans="3:20">
       <c r="C9" s="26"/>
@@ -10477,135 +10541,135 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="27"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="110"/>
-      <c r="R9" s="110"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="110"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
     </row>
     <row r="10" spans="3:20">
       <c r="C10" s="26"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="110"/>
-      <c r="R10" s="110"/>
-      <c r="S10" s="110"/>
-      <c r="T10" s="110"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
     </row>
     <row r="11" spans="3:20">
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="110"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="110"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
     </row>
     <row r="12" spans="3:20">
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="110"/>
-      <c r="T12" s="110"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
     </row>
     <row r="13" spans="3:20">
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
-      <c r="M13" s="110"/>
-      <c r="N13" s="110"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="110"/>
-      <c r="Q13" s="110"/>
-      <c r="R13" s="110"/>
-      <c r="S13" s="110"/>
-      <c r="T13" s="110"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="111"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="111"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
     </row>
     <row r="14" spans="3:20">
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
-      <c r="L14" s="110"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
-      <c r="S14" s="110"/>
-      <c r="T14" s="110"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
+      <c r="O14" s="111"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
     </row>
     <row r="15" spans="3:20">
-      <c r="J15" s="110"/>
-      <c r="K15" s="110"/>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
+      <c r="L15" s="111"/>
+      <c r="M15" s="111"/>
+      <c r="N15" s="111"/>
+      <c r="O15" s="111"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
     </row>
     <row r="16" spans="3:20">
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="111"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="111"/>
+      <c r="S16" s="111"/>
+      <c r="T16" s="111"/>
     </row>
     <row r="17" spans="10:20">
-      <c r="J17" s="110"/>
-      <c r="K17" s="110"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="111"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
     </row>
     <row r="18" spans="10:20">
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
-      <c r="R18" s="110"/>
-      <c r="S18" s="110"/>
-      <c r="T18" s="110"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="111"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10631,8 +10695,8 @@
   </sheetPr>
   <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10686,34 +10750,34 @@
       <c r="V2"/>
     </row>
     <row r="3" spans="2:22" ht="19.5" customHeight="1">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="70"/>
-      <c r="G3" s="104" t="s">
+      <c r="G3" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="106"/>
-      <c r="K3" s="104" t="s">
+      <c r="H3" s="106"/>
+      <c r="I3" s="107"/>
+      <c r="K3" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="N3" s="104" t="s">
+      <c r="L3" s="107"/>
+      <c r="N3" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="106"/>
-      <c r="T3" s="104" t="s">
+      <c r="O3" s="106"/>
+      <c r="P3" s="106"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="107"/>
+      <c r="T3" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="105"/>
-      <c r="V3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="107"/>
     </row>
     <row r="4" spans="2:22">
       <c r="B4" s="41" t="s">
@@ -11337,44 +11401,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="13.5" customHeight="1">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="130" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="117"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
     </row>
     <row r="3" spans="2:22" ht="13.5" customHeight="1">
-      <c r="B3" s="107"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="118"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="133"/>
     </row>
     <row r="4" spans="2:22" ht="13.5" customHeight="1">
       <c r="B4" s="33" t="s">
@@ -11416,12 +11480,12 @@
       <c r="N4" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="119" t="s">
+      <c r="O4" s="134" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="120"/>
-      <c r="Q4" s="120"/>
-      <c r="R4" s="121"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="135"/>
+      <c r="R4" s="136"/>
     </row>
     <row r="5" spans="2:22">
       <c r="B5" s="25" t="s">
@@ -11453,10 +11517,10 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="122"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="124"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="138"/>
+      <c r="Q5" s="138"/>
+      <c r="R5" s="139"/>
     </row>
     <row r="6" spans="2:22" ht="15">
       <c r="B6" s="25" t="s">
@@ -11484,10 +11548,10 @@
       <c r="N6" s="31">
         <v>4</v>
       </c>
-      <c r="O6" s="122"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="124"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="138"/>
+      <c r="Q6" s="138"/>
+      <c r="R6" s="139"/>
     </row>
     <row r="7" spans="2:22" ht="15">
       <c r="B7" s="25" t="s">
@@ -11515,10 +11579,10 @@
       <c r="N7" s="31">
         <v>4</v>
       </c>
-      <c r="O7" s="122"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="124"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="138"/>
+      <c r="Q7" s="138"/>
+      <c r="R7" s="139"/>
     </row>
     <row r="8" spans="2:22" ht="15">
       <c r="B8" s="25" t="s">
@@ -11546,10 +11610,10 @@
       <c r="N8" s="31">
         <v>4</v>
       </c>
-      <c r="O8" s="122"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="124"/>
+      <c r="O8" s="137"/>
+      <c r="P8" s="138"/>
+      <c r="Q8" s="138"/>
+      <c r="R8" s="139"/>
     </row>
     <row r="9" spans="2:22">
       <c r="B9" s="25" t="s">
@@ -11581,10 +11645,10 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="122"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="124"/>
+      <c r="O9" s="137"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139"/>
     </row>
     <row r="10" spans="2:22" ht="15">
       <c r="B10" s="25" t="s">
@@ -11612,10 +11676,10 @@
       <c r="N10" s="31">
         <v>4</v>
       </c>
-      <c r="O10" s="122"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="124"/>
+      <c r="O10" s="137"/>
+      <c r="P10" s="138"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
     </row>
     <row r="11" spans="2:22">
       <c r="B11" s="25" t="s">
@@ -11633,10 +11697,10 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="124"/>
+      <c r="O11" s="137"/>
+      <c r="P11" s="138"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
     </row>
     <row r="12" spans="2:22">
       <c r="B12" s="25" t="s">
@@ -11654,10 +11718,10 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="124"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="138"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
     </row>
     <row r="13" spans="2:22">
       <c r="B13" s="25" t="s">
@@ -11675,10 +11739,10 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="124"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="138"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
     </row>
     <row r="14" spans="2:22">
       <c r="B14" s="25" t="s">
@@ -11696,14 +11760,14 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="124"/>
-      <c r="U14" s="137" t="s">
+      <c r="O14" s="137"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="139"/>
+      <c r="U14" s="152" t="s">
         <v>204</v>
       </c>
-      <c r="V14" s="137"/>
+      <c r="V14" s="152"/>
     </row>
     <row r="15" spans="2:22">
       <c r="B15" s="25" t="s">
@@ -11721,12 +11785,12 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="124"/>
-      <c r="U15" s="137"/>
-      <c r="V15" s="137"/>
+      <c r="O15" s="137"/>
+      <c r="P15" s="138"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+      <c r="U15" s="152"/>
+      <c r="V15" s="152"/>
     </row>
     <row r="16" spans="2:22">
       <c r="B16" s="25" t="s">
@@ -11744,14 +11808,14 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="124"/>
-      <c r="U16" s="137" t="s">
+      <c r="O16" s="137"/>
+      <c r="P16" s="138"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="U16" s="152" t="s">
         <v>205</v>
       </c>
-      <c r="V16" s="138" t="s">
+      <c r="V16" s="153" t="s">
         <v>206</v>
       </c>
     </row>
@@ -11771,12 +11835,12 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="124"/>
-      <c r="U17" s="137"/>
-      <c r="V17" s="138"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="138"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="U17" s="152"/>
+      <c r="V17" s="153"/>
     </row>
     <row r="18" spans="2:25">
       <c r="B18" s="25" t="s">
@@ -11794,12 +11858,12 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="122"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="124"/>
-      <c r="U18" s="137"/>
-      <c r="V18" s="138" t="s">
+      <c r="O18" s="137"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
+      <c r="U18" s="152"/>
+      <c r="V18" s="153" t="s">
         <v>207</v>
       </c>
     </row>
@@ -11819,12 +11883,12 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
-      <c r="O19" s="122"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="124"/>
-      <c r="U19" s="137"/>
-      <c r="V19" s="138"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="138"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
+      <c r="U19" s="152"/>
+      <c r="V19" s="153"/>
     </row>
     <row r="20" spans="2:25">
       <c r="B20" s="25" t="s">
@@ -11842,12 +11906,12 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
-      <c r="O20" s="122"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="124"/>
-      <c r="U20" s="137"/>
-      <c r="V20" s="138" t="s">
+      <c r="O20" s="137"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="139"/>
+      <c r="U20" s="152"/>
+      <c r="V20" s="153" t="s">
         <v>208</v>
       </c>
     </row>
@@ -11867,12 +11931,12 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
-      <c r="O21" s="122"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="124"/>
-      <c r="U21" s="137"/>
-      <c r="V21" s="138"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="138"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="139"/>
+      <c r="U21" s="152"/>
+      <c r="V21" s="153"/>
     </row>
     <row r="22" spans="2:25">
       <c r="B22" s="25" t="s">
@@ -11890,12 +11954,12 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="122"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="124"/>
-      <c r="U22" s="137"/>
-      <c r="V22" s="138" t="s">
+      <c r="O22" s="137"/>
+      <c r="P22" s="138"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="139"/>
+      <c r="U22" s="152"/>
+      <c r="V22" s="153" t="s">
         <v>209</v>
       </c>
     </row>
@@ -11915,12 +11979,12 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
-      <c r="O23" s="122"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="124"/>
-      <c r="U23" s="137"/>
-      <c r="V23" s="138"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="138"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="139"/>
+      <c r="U23" s="152"/>
+      <c r="V23" s="153"/>
     </row>
     <row r="24" spans="2:25">
       <c r="B24" s="25" t="s">
@@ -11938,12 +12002,12 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="122"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="124"/>
-      <c r="U24" s="137"/>
-      <c r="V24" s="138" t="s">
+      <c r="O24" s="137"/>
+      <c r="P24" s="138"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="U24" s="152"/>
+      <c r="V24" s="153" t="s">
         <v>210</v>
       </c>
     </row>
@@ -11963,12 +12027,12 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="122"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="124"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="138"/>
+      <c r="O25" s="137"/>
+      <c r="P25" s="138"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="139"/>
+      <c r="U25" s="152"/>
+      <c r="V25" s="153"/>
     </row>
     <row r="26" spans="2:25">
       <c r="B26" s="25" t="s">
@@ -11986,12 +12050,12 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="122"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="124"/>
-      <c r="U26" s="137"/>
-      <c r="V26" s="138" t="s">
+      <c r="O26" s="137"/>
+      <c r="P26" s="138"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="139"/>
+      <c r="U26" s="152"/>
+      <c r="V26" s="153" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12011,52 +12075,52 @@
       <c r="L27" s="29"/>
       <c r="M27" s="29"/>
       <c r="N27" s="29"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="126"/>
-      <c r="R27" s="127"/>
-      <c r="U27" s="137"/>
-      <c r="V27" s="138"/>
+      <c r="O27" s="140"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="141"/>
+      <c r="R27" s="142"/>
+      <c r="U27" s="152"/>
+      <c r="V27" s="153"/>
     </row>
     <row r="30" spans="2:25" ht="13.5" customHeight="1">
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="117"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="131"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="132"/>
     </row>
     <row r="31" spans="2:25" ht="13.5" customHeight="1">
-      <c r="B31" s="107"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="108"/>
-      <c r="P31" s="108"/>
-      <c r="Q31" s="108"/>
-      <c r="R31" s="118"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="109"/>
+      <c r="P31" s="109"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="133"/>
       <c r="U31" s="6" t="s">
         <v>182</v>
       </c>
@@ -12096,15 +12160,15 @@
       <c r="K32" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="L32" s="128" t="s">
+      <c r="L32" s="143" t="s">
         <v>192</v>
       </c>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="129"/>
-      <c r="Q32" s="129"/>
-      <c r="R32" s="130"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="145"/>
       <c r="U32" s="5" t="s">
         <v>5</v>
       </c>
@@ -12147,13 +12211,13 @@
       <c r="K33" s="31">
         <v>4</v>
       </c>
-      <c r="L33" s="131"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="133"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
+      <c r="Q33" s="147"/>
+      <c r="R33" s="148"/>
       <c r="U33" s="6" t="s">
         <v>156</v>
       </c>
@@ -12170,13 +12234,13 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="131"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="133"/>
+      <c r="L34" s="146"/>
+      <c r="M34" s="147"/>
+      <c r="N34" s="147"/>
+      <c r="O34" s="147"/>
+      <c r="P34" s="147"/>
+      <c r="Q34" s="147"/>
+      <c r="R34" s="148"/>
       <c r="U34" s="5" t="s">
         <v>216</v>
       </c>
@@ -12202,13 +12266,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="131"/>
-      <c r="M35" s="132"/>
-      <c r="N35" s="132"/>
-      <c r="O35" s="132"/>
-      <c r="P35" s="132"/>
-      <c r="Q35" s="132"/>
-      <c r="R35" s="133"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="147"/>
+      <c r="N35" s="147"/>
+      <c r="O35" s="147"/>
+      <c r="P35" s="147"/>
+      <c r="Q35" s="147"/>
+      <c r="R35" s="148"/>
       <c r="S35" s="7"/>
       <c r="U35" s="5" t="s">
         <v>187</v>
@@ -12232,13 +12296,13 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="131"/>
-      <c r="M36" s="132"/>
-      <c r="N36" s="132"/>
-      <c r="O36" s="132"/>
-      <c r="P36" s="132"/>
-      <c r="Q36" s="132"/>
-      <c r="R36" s="133"/>
+      <c r="L36" s="146"/>
+      <c r="M36" s="147"/>
+      <c r="N36" s="147"/>
+      <c r="O36" s="147"/>
+      <c r="P36" s="147"/>
+      <c r="Q36" s="147"/>
+      <c r="R36" s="148"/>
       <c r="S36" s="7"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
@@ -12254,13 +12318,13 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="131"/>
-      <c r="M37" s="132"/>
-      <c r="N37" s="132"/>
-      <c r="O37" s="132"/>
-      <c r="P37" s="132"/>
-      <c r="Q37" s="132"/>
-      <c r="R37" s="133"/>
+      <c r="L37" s="146"/>
+      <c r="M37" s="147"/>
+      <c r="N37" s="147"/>
+      <c r="O37" s="147"/>
+      <c r="P37" s="147"/>
+      <c r="Q37" s="147"/>
+      <c r="R37" s="148"/>
       <c r="U37" s="6" t="s">
         <v>21</v>
       </c>
@@ -12280,13 +12344,13 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="131"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="132"/>
-      <c r="Q38" s="132"/>
-      <c r="R38" s="133"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="147"/>
+      <c r="N38" s="147"/>
+      <c r="O38" s="147"/>
+      <c r="P38" s="147"/>
+      <c r="Q38" s="147"/>
+      <c r="R38" s="148"/>
       <c r="U38" s="6" t="s">
         <v>220</v>
       </c>
@@ -12306,13 +12370,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="L39" s="131"/>
-      <c r="M39" s="132"/>
-      <c r="N39" s="132"/>
-      <c r="O39" s="132"/>
-      <c r="P39" s="132"/>
-      <c r="Q39" s="132"/>
-      <c r="R39" s="133"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="147"/>
+      <c r="N39" s="147"/>
+      <c r="O39" s="147"/>
+      <c r="P39" s="147"/>
+      <c r="Q39" s="147"/>
+      <c r="R39" s="148"/>
       <c r="U39" s="5" t="s">
         <v>222</v>
       </c>
@@ -12347,13 +12411,13 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="131"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="132"/>
-      <c r="Q40" s="132"/>
-      <c r="R40" s="133"/>
+      <c r="L40" s="146"/>
+      <c r="M40" s="147"/>
+      <c r="N40" s="147"/>
+      <c r="O40" s="147"/>
+      <c r="P40" s="147"/>
+      <c r="Q40" s="147"/>
+      <c r="R40" s="148"/>
     </row>
     <row r="41" spans="2:29">
       <c r="B41" s="26"/>
@@ -12366,13 +12430,13 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="131"/>
-      <c r="M41" s="132"/>
-      <c r="N41" s="132"/>
-      <c r="O41" s="132"/>
-      <c r="P41" s="132"/>
-      <c r="Q41" s="132"/>
-      <c r="R41" s="133"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="147"/>
+      <c r="N41" s="147"/>
+      <c r="O41" s="147"/>
+      <c r="P41" s="147"/>
+      <c r="Q41" s="147"/>
+      <c r="R41" s="148"/>
     </row>
     <row r="42" spans="2:29">
       <c r="B42" s="26"/>
@@ -12385,13 +12449,13 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="131"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="132"/>
-      <c r="Q42" s="132"/>
-      <c r="R42" s="133"/>
+      <c r="L42" s="146"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="147"/>
+      <c r="Q42" s="147"/>
+      <c r="R42" s="148"/>
     </row>
     <row r="43" spans="2:29">
       <c r="B43" s="26"/>
@@ -12404,13 +12468,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="132"/>
-      <c r="N43" s="132"/>
-      <c r="O43" s="132"/>
-      <c r="P43" s="132"/>
-      <c r="Q43" s="132"/>
-      <c r="R43" s="133"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="147"/>
+      <c r="N43" s="147"/>
+      <c r="O43" s="147"/>
+      <c r="P43" s="147"/>
+      <c r="Q43" s="147"/>
+      <c r="R43" s="148"/>
     </row>
     <row r="44" spans="2:29">
       <c r="B44" s="26"/>
@@ -12423,13 +12487,13 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="131"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="132"/>
-      <c r="Q44" s="132"/>
-      <c r="R44" s="133"/>
+      <c r="L44" s="146"/>
+      <c r="M44" s="147"/>
+      <c r="N44" s="147"/>
+      <c r="O44" s="147"/>
+      <c r="P44" s="147"/>
+      <c r="Q44" s="147"/>
+      <c r="R44" s="148"/>
     </row>
     <row r="45" spans="2:29">
       <c r="B45" s="28"/>
@@ -12442,13 +12506,13 @@
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="135"/>
-      <c r="N45" s="135"/>
-      <c r="O45" s="135"/>
-      <c r="P45" s="135"/>
-      <c r="Q45" s="135"/>
-      <c r="R45" s="136"/>
+      <c r="L45" s="149"/>
+      <c r="M45" s="150"/>
+      <c r="N45" s="150"/>
+      <c r="O45" s="150"/>
+      <c r="P45" s="150"/>
+      <c r="Q45" s="150"/>
+      <c r="R45" s="151"/>
     </row>
     <row r="49" customFormat="1"/>
     <row r="50" customFormat="1"/>
